--- a/COVID_19_9880/rezultat_issledov/test.xlsx
+++ b/COVID_19_9880/rezultat_issledov/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C746B283-B3F4-46A6-B7F3-C5FF74A9435A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47233AF-CD58-4670-896D-CD2546A24990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6270" yWindow="2250" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Сводная таблица по планшету" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
     <t>821UEF957</t>
   </si>
   <si>
-    <t>821UEF962</t>
+    <t>821UEF2699</t>
   </si>
 </sst>
 </file>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -788,7 +788,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -868,7 +868,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="A7:C8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -959,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:I8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/COVID_19_9880/rezultat_issledov/test.xlsx
+++ b/COVID_19_9880/rezultat_issledov/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47233AF-CD58-4670-896D-CD2546A24990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1796EF62-4A1A-4F7C-B4A1-2461F1E93923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="2250" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1935" yWindow="1500" windowWidth="21825" windowHeight="13965" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Сводная таблица по планшету" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,18 @@
     <sheet name="Клинические испытания" sheetId="3" r:id="rId3"/>
     <sheet name="Полная таблица  558000000008907" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -124,25 +135,25 @@
     <t>Штрих-код</t>
   </si>
   <si>
+    <t>C;0003246190202305670450&lt;032164584@</t>
+  </si>
+  <si>
+    <t>C;0003246190202305670450&lt;032542155@</t>
+  </si>
+  <si>
+    <t>C;0003246190202305670450&lt;032560074@</t>
+  </si>
+  <si>
+    <t>1В213507</t>
+  </si>
+  <si>
+    <t>12В54995</t>
+  </si>
+  <si>
+    <t>1В213518</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>C;0003246190202305670450&lt;032164584@</t>
-  </si>
-  <si>
-    <t>C;0003246190202305670450&lt;032542155@</t>
-  </si>
-  <si>
-    <t>C;0003246190202305670450&lt;032560074@</t>
-  </si>
-  <si>
-    <t>821UEF956</t>
-  </si>
-  <si>
-    <t>821UEF957</t>
-  </si>
-  <si>
-    <t>821UEF2699</t>
   </si>
 </sst>
 </file>
@@ -629,7 +640,7 @@
   <dimension ref="A3:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -701,7 +712,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4">
         <v>28.937078475952148</v>
@@ -727,7 +738,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4">
         <v>28.573308944702148</v>
@@ -753,7 +764,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="4">
         <v>28.701116561889648</v>
@@ -788,7 +799,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -836,7 +847,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
       <c r="A7" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>14</v>
@@ -844,7 +855,7 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1">
       <c r="A8" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>16</v>
@@ -852,7 +863,7 @@
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
       <c r="A9" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>16</v>
@@ -868,7 +879,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -922,7 +933,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>14</v>
@@ -933,7 +944,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>16</v>
@@ -944,7 +955,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>16</v>
@@ -959,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1039,7 +1050,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="12">
         <v>28.937078475952148</v>
@@ -1051,7 +1062,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G7" s="12">
         <v>0</v>
@@ -1060,7 +1071,7 @@
         <v>14</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="38.25" thickBot="1">
@@ -1068,7 +1079,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="12">
         <v>28.573308944702148</v>
@@ -1080,7 +1091,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="12">
-        <v>26.116044998168945</v>
+        <v>26.116044998168899</v>
       </c>
       <c r="G8" s="12">
         <v>25449</v>
@@ -1089,7 +1100,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="38.25" thickBot="1">
@@ -1097,7 +1108,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="12">
         <v>28.701116561889648</v>
@@ -1118,7 +1129,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:9">
